--- a/data/InaugurationInfo.xlsx
+++ b/data/InaugurationInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianzheng/Dropbox/Tian_Teaching/G5243-ADS/Spring2017/Tutorials/speeches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coco/Documents/GitHub/Spring2018-Project1-cocogt96/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="3420" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="7640" yWindow="3120" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
